--- a/Wheat_stock.xlsx
+++ b/Wheat_stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shuoy\OneDrive\Documents\GitHub\ARE_231\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C0F6BD-87AB-4ED3-8ABA-E6885A1723FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB2A5AD-D841-4BB5-88A5-B5C30DD00E95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,61 +25,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>All wheat       :</t>
+    <t>in 1,000 bushels</t>
   </si>
   <si>
-    <t>March 1 ........:</t>
+    <t>On_farms</t>
   </si>
   <si>
-    <t>June 1 .........:</t>
+    <t>Off_farms</t>
   </si>
   <si>
-    <t>September 1 ....:</t>
+    <t>Total</t>
   </si>
   <si>
-    <t>December 1 .....:</t>
-  </si>
-  <si>
-    <t>Total all</t>
-  </si>
-  <si>
-    <t>farms    :</t>
-  </si>
-  <si>
-    <t>farms 1/  :</t>
-  </si>
-  <si>
-    <t>positions  :</t>
-  </si>
-  <si>
-    <t>positions</t>
-  </si>
-  <si>
-    <t>On</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Off </t>
-  </si>
-  <si>
-    <t>Off</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1,000 bushels</t>
+    <t>Report_date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -105,13 +81,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -392,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -409,354 +382,314 @@
     <col min="7" max="7" width="8.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B1" s="2">
-        <v>2016</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2">
-        <v>2017</v>
-      </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2">
-        <v>2018</v>
-      </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2">
-        <v>2019</v>
-      </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2">
-        <v>2020</v>
-      </c>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N2" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" t="s">
-        <v>11</v>
-      </c>
-      <c r="P2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" t="s">
-        <v>6</v>
-      </c>
-      <c r="L3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M3" t="s">
-        <v>9</v>
-      </c>
-      <c r="N3" t="s">
-        <v>6</v>
-      </c>
-      <c r="O3" t="s">
-        <v>7</v>
-      </c>
-      <c r="P3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>1</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <v>42430</v>
+      </c>
+      <c r="B3" s="1">
+        <v>319800</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1051862</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1371662</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>42522</v>
+      </c>
+      <c r="B4" s="1">
+        <v>197210</v>
+      </c>
+      <c r="C4" s="1">
+        <v>778393</v>
+      </c>
+      <c r="D4" s="1">
+        <v>975603</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>42614</v>
+      </c>
+      <c r="B5" s="1">
+        <v>728200</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1816830</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2545030</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>42705</v>
       </c>
       <c r="B6" s="1">
-        <v>319800</v>
+        <v>571280</v>
       </c>
       <c r="C6" s="1">
-        <v>1051862</v>
+        <v>1508080</v>
       </c>
       <c r="D6" s="1">
-        <v>1371662</v>
-      </c>
-      <c r="E6" s="1">
+        <v>2079360</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>42795</v>
+      </c>
+      <c r="B7" s="1">
         <v>349500</v>
       </c>
-      <c r="F6" s="1">
+      <c r="C7" s="1">
         <v>1309175</v>
       </c>
-      <c r="G6" s="1">
+      <c r="D7" s="1">
         <v>1658675</v>
       </c>
-      <c r="H6" s="1">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
+        <v>42887</v>
+      </c>
+      <c r="B8" s="1">
+        <v>191755</v>
+      </c>
+      <c r="C8" s="1">
+        <v>988847</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1180602</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
+        <v>42979</v>
+      </c>
+      <c r="B9" s="1">
+        <v>491800</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1774275</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2266075</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
+        <v>43070</v>
+      </c>
+      <c r="B10" s="1">
+        <v>393180</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1480364</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1873544</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
+        <v>43160</v>
+      </c>
+      <c r="B11" s="1">
         <v>259310</v>
       </c>
-      <c r="I6" s="1">
+      <c r="C11" s="1">
         <v>1236131</v>
       </c>
-      <c r="J6" s="1">
+      <c r="D11" s="1">
         <v>1495441</v>
       </c>
-      <c r="K6" s="1">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
+        <v>43252</v>
+      </c>
+      <c r="B12" s="1">
+        <v>130475</v>
+      </c>
+      <c r="C12" s="1">
+        <v>968414</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1098889</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
+        <v>43344</v>
+      </c>
+      <c r="B13" s="1">
+        <v>632700</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1757071</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2389771</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
+        <v>43435</v>
+      </c>
+      <c r="B14" s="1">
+        <v>504280</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1505205</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2009485</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
+        <v>43525</v>
+      </c>
+      <c r="B15" s="1">
         <v>367870</v>
       </c>
-      <c r="L6" s="1">
+      <c r="C15" s="1">
         <v>1225201</v>
       </c>
-      <c r="M6" s="1">
+      <c r="D15" s="1">
         <v>1593071</v>
       </c>
-      <c r="N6" s="1">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="2">
+        <v>43617</v>
+      </c>
+      <c r="B16" s="1">
+        <v>206545</v>
+      </c>
+      <c r="C16" s="1">
+        <v>873216</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1079761</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
+        <v>43709</v>
+      </c>
+      <c r="B17" s="1">
+        <v>734500</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1611025</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2345525</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="2">
+        <v>43800</v>
+      </c>
+      <c r="B18" s="1">
+        <v>519470</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1314195</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1833665</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="2">
+        <v>43891</v>
+      </c>
+      <c r="B19" s="1">
         <v>338690</v>
       </c>
-      <c r="O6" s="1">
+      <c r="C19" s="1">
         <v>1076724</v>
       </c>
-      <c r="P6" s="1">
+      <c r="D19" s="1">
         <v>1415414</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="1">
-        <v>197210</v>
-      </c>
-      <c r="C7" s="1">
-        <v>778393</v>
-      </c>
-      <c r="D7" s="1">
-        <v>975603</v>
-      </c>
-      <c r="E7" s="1">
-        <v>191755</v>
-      </c>
-      <c r="F7" s="1">
-        <v>988847</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1180602</v>
-      </c>
-      <c r="H7" s="1">
-        <v>130475</v>
-      </c>
-      <c r="I7" s="1">
-        <v>968414</v>
-      </c>
-      <c r="J7" s="1">
-        <v>1098889</v>
-      </c>
-      <c r="K7" s="1">
-        <v>206545</v>
-      </c>
-      <c r="L7" s="1">
-        <v>873216</v>
-      </c>
-      <c r="M7" s="1">
-        <v>1079761</v>
-      </c>
-      <c r="N7" s="1">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="2">
+        <v>43983</v>
+      </c>
+      <c r="B20" s="1">
         <v>228585</v>
       </c>
-      <c r="O7" s="1">
+      <c r="C20" s="1">
         <v>799380</v>
       </c>
-      <c r="P7" s="1">
+      <c r="D20" s="1">
         <v>1027965</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="1">
-        <v>728200</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1816830</v>
-      </c>
-      <c r="D8" s="1">
-        <v>2545030</v>
-      </c>
-      <c r="E8" s="1">
-        <v>491800</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1774275</v>
-      </c>
-      <c r="G8" s="1">
-        <v>2266075</v>
-      </c>
-      <c r="H8" s="1">
-        <v>632700</v>
-      </c>
-      <c r="I8" s="1">
-        <v>1757071</v>
-      </c>
-      <c r="J8" s="1">
-        <v>2389771</v>
-      </c>
-      <c r="K8" s="1">
-        <v>734500</v>
-      </c>
-      <c r="L8" s="1">
-        <v>1611025</v>
-      </c>
-      <c r="M8" s="1">
-        <v>2345525</v>
-      </c>
-      <c r="N8" s="1">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="2">
+        <v>44075</v>
+      </c>
+      <c r="B21" s="1">
         <v>705050</v>
       </c>
-      <c r="O8" s="1">
+      <c r="C21" s="1">
         <v>1453604</v>
       </c>
-      <c r="P8" s="1">
+      <c r="D21" s="1">
         <v>2158654</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="1">
-        <v>571280</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1508080</v>
-      </c>
-      <c r="D9" s="1">
-        <v>2079360</v>
-      </c>
-      <c r="E9" s="1">
-        <v>393180</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1480364</v>
-      </c>
-      <c r="G9" s="1">
-        <v>1873544</v>
-      </c>
-      <c r="H9" s="1">
-        <v>504280</v>
-      </c>
-      <c r="I9" s="1">
-        <v>1505205</v>
-      </c>
-      <c r="J9" s="1">
-        <v>2009485</v>
-      </c>
-      <c r="K9" s="1">
-        <v>519470</v>
-      </c>
-      <c r="L9" s="1">
-        <v>1314195</v>
-      </c>
-      <c r="M9" s="1">
-        <v>1833665</v>
-      </c>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="2"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="B4:P4"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:P1"/>
-  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>